--- a/po_analysis_by_asin/B0CSJZ9YK3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJZ9YK3_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45313</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>90</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45327</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>450</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45334</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>30</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45341</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>120</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45348</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>150</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45355</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>300</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45362</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>280</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45383</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>400</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45397</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>120</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45404</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>80</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45411</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>180</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45418</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>200</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45425</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>240</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45439</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>80</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45453</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>240</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45460</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B17" t="n">
         <v>40</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>160</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45474</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>60</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B20" t="n">
         <v>340</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B21" t="n">
         <v>420</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45495</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B22" t="n">
         <v>20</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>80</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B24" t="n">
         <v>20</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45523</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B25" t="n">
         <v>240</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>40</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B27" t="n">
         <v>40</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B28" t="n">
         <v>140</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>220</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45558</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B30" t="n">
         <v>280</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B31" t="n">
         <v>200</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B32" t="n">
         <v>220</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B33" t="n">
         <v>480</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B34" t="n">
         <v>280</v>
@@ -747,7 +747,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>90</v>
@@ -755,7 +755,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>750</v>
@@ -763,7 +763,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>580</v>
@@ -771,7 +771,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>600</v>
@@ -779,7 +779,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>700</v>
@@ -787,7 +787,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>440</v>
@@ -795,7 +795,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>840</v>
@@ -803,7 +803,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>380</v>
@@ -811,7 +811,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>680</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>900</v>
@@ -827,7 +827,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>280</v>

--- a/po_analysis_by_asin/B0CSJZ9YK3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJZ9YK3_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,159 +492,159 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>280</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45403.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>80</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45431.99999999999</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45445.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>80</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45466.99999999999</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45473.99999999999</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45480.99999999999</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>340</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45487.99999999999</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45494.99999999999</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>420</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45501.99999999999</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45515.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45529.99999999999</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45536.99999999999</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B26" t="n">
         <v>40</v>
@@ -652,65 +652,57 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45543.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>140</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>220</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>280</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45585.99999999999</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45592.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>220</v>
+        <v>480</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45599.99999999999</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>45613.99999999999</v>
-      </c>
-      <c r="B34" t="n">
         <v>280</v>
       </c>
     </row>
@@ -766,7 +758,7 @@
         <v>45382.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>580</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">

--- a/po_analysis_by_asin/B0CSJZ9YK3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJZ9YK3_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -733,7 +734,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -823,6 +824,607 @@
       </c>
       <c r="B12" t="n">
         <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>165</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-1.606381319722833</v>
+      </c>
+      <c r="D2" t="n">
+        <v>337.0673299896298</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>167</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-6.712938071644828</v>
+      </c>
+      <c r="D3" t="n">
+        <v>331.4598667913543</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>168</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-18.59711561298863</v>
+      </c>
+      <c r="D4" t="n">
+        <v>317.2355249908561</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>169</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4.253688031603632</v>
+      </c>
+      <c r="D5" t="n">
+        <v>338.795225870944</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>169</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9447191887366607</v>
+      </c>
+      <c r="D6" t="n">
+        <v>345.0702410872705</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>171</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.07067195624935</v>
+      </c>
+      <c r="D7" t="n">
+        <v>341.8580619497407</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>174</v>
+      </c>
+      <c r="C8" t="n">
+        <v>15.36763777141555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>334.2956518526397</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>176</v>
+      </c>
+      <c r="C9" t="n">
+        <v>28.83934149204891</v>
+      </c>
+      <c r="D9" t="n">
+        <v>339.1300451078206</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>177</v>
+      </c>
+      <c r="C10" t="n">
+        <v>14.15627950812373</v>
+      </c>
+      <c r="D10" t="n">
+        <v>344.0128776454534</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>178</v>
+      </c>
+      <c r="C11" t="n">
+        <v>7.650786922199567</v>
+      </c>
+      <c r="D11" t="n">
+        <v>340.1419981208458</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>179</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23.12157471915499</v>
+      </c>
+      <c r="D12" t="n">
+        <v>352.1967238018545</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>180</v>
+      </c>
+      <c r="C13" t="n">
+        <v>17.90237606135699</v>
+      </c>
+      <c r="D13" t="n">
+        <v>345.6707974426129</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>182</v>
+      </c>
+      <c r="C14" t="n">
+        <v>23.35633261925196</v>
+      </c>
+      <c r="D14" t="n">
+        <v>350.2901881488587</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>184</v>
+      </c>
+      <c r="C15" t="n">
+        <v>29.7634276480652</v>
+      </c>
+      <c r="D15" t="n">
+        <v>355.9123933135411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>185</v>
+      </c>
+      <c r="C16" t="n">
+        <v>10.54965677935609</v>
+      </c>
+      <c r="D16" t="n">
+        <v>338.3878635535044</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>186</v>
+      </c>
+      <c r="C17" t="n">
+        <v>19.67229509356508</v>
+      </c>
+      <c r="D17" t="n">
+        <v>357.3593766654562</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>187</v>
+      </c>
+      <c r="C18" t="n">
+        <v>29.66394207955831</v>
+      </c>
+      <c r="D18" t="n">
+        <v>351.5746663957887</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>188</v>
+      </c>
+      <c r="C19" t="n">
+        <v>21.41384853545142</v>
+      </c>
+      <c r="D19" t="n">
+        <v>350.2894133646889</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>189</v>
+      </c>
+      <c r="C20" t="n">
+        <v>16.62238596241329</v>
+      </c>
+      <c r="D20" t="n">
+        <v>342.7558593729057</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>190</v>
+      </c>
+      <c r="C21" t="n">
+        <v>44.89875697346812</v>
+      </c>
+      <c r="D21" t="n">
+        <v>347.9384235034392</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>192</v>
+      </c>
+      <c r="C22" t="n">
+        <v>9.758002266493628</v>
+      </c>
+      <c r="D22" t="n">
+        <v>352.2274920611293</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>193</v>
+      </c>
+      <c r="C23" t="n">
+        <v>46.01230205442248</v>
+      </c>
+      <c r="D23" t="n">
+        <v>360.7127360680165</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>194</v>
+      </c>
+      <c r="C24" t="n">
+        <v>27.18700386363907</v>
+      </c>
+      <c r="D24" t="n">
+        <v>352.0183765300732</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>195</v>
+      </c>
+      <c r="C25" t="n">
+        <v>38.86295933249171</v>
+      </c>
+      <c r="D25" t="n">
+        <v>358.7499305056629</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>196</v>
+      </c>
+      <c r="C26" t="n">
+        <v>34.63044201313476</v>
+      </c>
+      <c r="D26" t="n">
+        <v>371.268646463647</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>197</v>
+      </c>
+      <c r="C27" t="n">
+        <v>37.71672005583293</v>
+      </c>
+      <c r="D27" t="n">
+        <v>355.8228365081702</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>198</v>
+      </c>
+      <c r="C28" t="n">
+        <v>41.59574434820199</v>
+      </c>
+      <c r="D28" t="n">
+        <v>370.5636102604956</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>199</v>
+      </c>
+      <c r="C29" t="n">
+        <v>40.91553618282772</v>
+      </c>
+      <c r="D29" t="n">
+        <v>358.4840820603981</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>202</v>
+      </c>
+      <c r="C30" t="n">
+        <v>21.46800038496522</v>
+      </c>
+      <c r="D30" t="n">
+        <v>359.9828751603424</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>203</v>
+      </c>
+      <c r="C31" t="n">
+        <v>34.46477666397477</v>
+      </c>
+      <c r="D31" t="n">
+        <v>371.1163769693252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>204</v>
+      </c>
+      <c r="C32" t="n">
+        <v>35.3882502981881</v>
+      </c>
+      <c r="D32" t="n">
+        <v>368.5997896956047</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>206</v>
+      </c>
+      <c r="C33" t="n">
+        <v>26.66937960022772</v>
+      </c>
+      <c r="D33" t="n">
+        <v>374.6567487979323</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>207</v>
+      </c>
+      <c r="C34" t="n">
+        <v>44.41977513414781</v>
+      </c>
+      <c r="D34" t="n">
+        <v>379.5688662879995</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>208</v>
+      </c>
+      <c r="C35" t="n">
+        <v>40.93056682611897</v>
+      </c>
+      <c r="D35" t="n">
+        <v>369.4717433641876</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>208</v>
+      </c>
+      <c r="C36" t="n">
+        <v>33.36008160159775</v>
+      </c>
+      <c r="D36" t="n">
+        <v>367.0005635588489</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>209</v>
+      </c>
+      <c r="C37" t="n">
+        <v>50.1476464091351</v>
+      </c>
+      <c r="D37" t="n">
+        <v>373.9499805294157</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>210</v>
+      </c>
+      <c r="C38" t="n">
+        <v>48.61189321582133</v>
+      </c>
+      <c r="D38" t="n">
+        <v>376.8917370998279</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>211</v>
+      </c>
+      <c r="C39" t="n">
+        <v>48.44340392930093</v>
+      </c>
+      <c r="D39" t="n">
+        <v>383.8145873209214</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>212</v>
+      </c>
+      <c r="C40" t="n">
+        <v>37.88626929400352</v>
+      </c>
+      <c r="D40" t="n">
+        <v>374.4653421657113</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>213</v>
+      </c>
+      <c r="C41" t="n">
+        <v>44.98421887023439</v>
+      </c>
+      <c r="D41" t="n">
+        <v>377.3193373133338</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0CSJZ9YK3_po_data.xlsx
+++ b/po_analysis_by_asin/B0CSJZ9YK3_po_data.xlsx
@@ -837,7 +837,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -856,16 +856,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -874,12 +864,6 @@
       <c r="B2" t="n">
         <v>165</v>
       </c>
-      <c r="C2" t="n">
-        <v>-1.606381319722833</v>
-      </c>
-      <c r="D2" t="n">
-        <v>337.0673299896298</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -888,12 +872,6 @@
       <c r="B3" t="n">
         <v>167</v>
       </c>
-      <c r="C3" t="n">
-        <v>-6.712938071644828</v>
-      </c>
-      <c r="D3" t="n">
-        <v>331.4598667913543</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -902,12 +880,6 @@
       <c r="B4" t="n">
         <v>168</v>
       </c>
-      <c r="C4" t="n">
-        <v>-18.59711561298863</v>
-      </c>
-      <c r="D4" t="n">
-        <v>317.2355249908561</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -916,12 +888,6 @@
       <c r="B5" t="n">
         <v>169</v>
       </c>
-      <c r="C5" t="n">
-        <v>4.253688031603632</v>
-      </c>
-      <c r="D5" t="n">
-        <v>338.795225870944</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -930,12 +896,6 @@
       <c r="B6" t="n">
         <v>169</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.9447191887366607</v>
-      </c>
-      <c r="D6" t="n">
-        <v>345.0702410872705</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -944,12 +904,6 @@
       <c r="B7" t="n">
         <v>171</v>
       </c>
-      <c r="C7" t="n">
-        <v>7.07067195624935</v>
-      </c>
-      <c r="D7" t="n">
-        <v>341.8580619497407</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -958,12 +912,6 @@
       <c r="B8" t="n">
         <v>174</v>
       </c>
-      <c r="C8" t="n">
-        <v>15.36763777141555</v>
-      </c>
-      <c r="D8" t="n">
-        <v>334.2956518526397</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -972,12 +920,6 @@
       <c r="B9" t="n">
         <v>176</v>
       </c>
-      <c r="C9" t="n">
-        <v>28.83934149204891</v>
-      </c>
-      <c r="D9" t="n">
-        <v>339.1300451078206</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -986,12 +928,6 @@
       <c r="B10" t="n">
         <v>177</v>
       </c>
-      <c r="C10" t="n">
-        <v>14.15627950812373</v>
-      </c>
-      <c r="D10" t="n">
-        <v>344.0128776454534</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1000,12 +936,6 @@
       <c r="B11" t="n">
         <v>178</v>
       </c>
-      <c r="C11" t="n">
-        <v>7.650786922199567</v>
-      </c>
-      <c r="D11" t="n">
-        <v>340.1419981208458</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1014,12 +944,6 @@
       <c r="B12" t="n">
         <v>179</v>
       </c>
-      <c r="C12" t="n">
-        <v>23.12157471915499</v>
-      </c>
-      <c r="D12" t="n">
-        <v>352.1967238018545</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1028,12 +952,6 @@
       <c r="B13" t="n">
         <v>180</v>
       </c>
-      <c r="C13" t="n">
-        <v>17.90237606135699</v>
-      </c>
-      <c r="D13" t="n">
-        <v>345.6707974426129</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1042,12 +960,6 @@
       <c r="B14" t="n">
         <v>182</v>
       </c>
-      <c r="C14" t="n">
-        <v>23.35633261925196</v>
-      </c>
-      <c r="D14" t="n">
-        <v>350.2901881488587</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1056,12 +968,6 @@
       <c r="B15" t="n">
         <v>184</v>
       </c>
-      <c r="C15" t="n">
-        <v>29.7634276480652</v>
-      </c>
-      <c r="D15" t="n">
-        <v>355.9123933135411</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1070,12 +976,6 @@
       <c r="B16" t="n">
         <v>185</v>
       </c>
-      <c r="C16" t="n">
-        <v>10.54965677935609</v>
-      </c>
-      <c r="D16" t="n">
-        <v>338.3878635535044</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1084,12 +984,6 @@
       <c r="B17" t="n">
         <v>186</v>
       </c>
-      <c r="C17" t="n">
-        <v>19.67229509356508</v>
-      </c>
-      <c r="D17" t="n">
-        <v>357.3593766654562</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1098,12 +992,6 @@
       <c r="B18" t="n">
         <v>187</v>
       </c>
-      <c r="C18" t="n">
-        <v>29.66394207955831</v>
-      </c>
-      <c r="D18" t="n">
-        <v>351.5746663957887</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1112,12 +1000,6 @@
       <c r="B19" t="n">
         <v>188</v>
       </c>
-      <c r="C19" t="n">
-        <v>21.41384853545142</v>
-      </c>
-      <c r="D19" t="n">
-        <v>350.2894133646889</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1126,12 +1008,6 @@
       <c r="B20" t="n">
         <v>189</v>
       </c>
-      <c r="C20" t="n">
-        <v>16.62238596241329</v>
-      </c>
-      <c r="D20" t="n">
-        <v>342.7558593729057</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1140,12 +1016,6 @@
       <c r="B21" t="n">
         <v>190</v>
       </c>
-      <c r="C21" t="n">
-        <v>44.89875697346812</v>
-      </c>
-      <c r="D21" t="n">
-        <v>347.9384235034392</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1154,12 +1024,6 @@
       <c r="B22" t="n">
         <v>192</v>
       </c>
-      <c r="C22" t="n">
-        <v>9.758002266493628</v>
-      </c>
-      <c r="D22" t="n">
-        <v>352.2274920611293</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1168,12 +1032,6 @@
       <c r="B23" t="n">
         <v>193</v>
       </c>
-      <c r="C23" t="n">
-        <v>46.01230205442248</v>
-      </c>
-      <c r="D23" t="n">
-        <v>360.7127360680165</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1182,12 +1040,6 @@
       <c r="B24" t="n">
         <v>194</v>
       </c>
-      <c r="C24" t="n">
-        <v>27.18700386363907</v>
-      </c>
-      <c r="D24" t="n">
-        <v>352.0183765300732</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1196,12 +1048,6 @@
       <c r="B25" t="n">
         <v>195</v>
       </c>
-      <c r="C25" t="n">
-        <v>38.86295933249171</v>
-      </c>
-      <c r="D25" t="n">
-        <v>358.7499305056629</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1210,12 +1056,6 @@
       <c r="B26" t="n">
         <v>196</v>
       </c>
-      <c r="C26" t="n">
-        <v>34.63044201313476</v>
-      </c>
-      <c r="D26" t="n">
-        <v>371.268646463647</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1224,12 +1064,6 @@
       <c r="B27" t="n">
         <v>197</v>
       </c>
-      <c r="C27" t="n">
-        <v>37.71672005583293</v>
-      </c>
-      <c r="D27" t="n">
-        <v>355.8228365081702</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1238,12 +1072,6 @@
       <c r="B28" t="n">
         <v>198</v>
       </c>
-      <c r="C28" t="n">
-        <v>41.59574434820199</v>
-      </c>
-      <c r="D28" t="n">
-        <v>370.5636102604956</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1252,12 +1080,6 @@
       <c r="B29" t="n">
         <v>199</v>
       </c>
-      <c r="C29" t="n">
-        <v>40.91553618282772</v>
-      </c>
-      <c r="D29" t="n">
-        <v>358.4840820603981</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1266,12 +1088,6 @@
       <c r="B30" t="n">
         <v>202</v>
       </c>
-      <c r="C30" t="n">
-        <v>21.46800038496522</v>
-      </c>
-      <c r="D30" t="n">
-        <v>359.9828751603424</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1280,12 +1096,6 @@
       <c r="B31" t="n">
         <v>203</v>
       </c>
-      <c r="C31" t="n">
-        <v>34.46477666397477</v>
-      </c>
-      <c r="D31" t="n">
-        <v>371.1163769693252</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1294,12 +1104,6 @@
       <c r="B32" t="n">
         <v>204</v>
       </c>
-      <c r="C32" t="n">
-        <v>35.3882502981881</v>
-      </c>
-      <c r="D32" t="n">
-        <v>368.5997896956047</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1308,12 +1112,6 @@
       <c r="B33" t="n">
         <v>206</v>
       </c>
-      <c r="C33" t="n">
-        <v>26.66937960022772</v>
-      </c>
-      <c r="D33" t="n">
-        <v>374.6567487979323</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1322,12 +1120,6 @@
       <c r="B34" t="n">
         <v>207</v>
       </c>
-      <c r="C34" t="n">
-        <v>44.41977513414781</v>
-      </c>
-      <c r="D34" t="n">
-        <v>379.5688662879995</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1336,12 +1128,6 @@
       <c r="B35" t="n">
         <v>208</v>
       </c>
-      <c r="C35" t="n">
-        <v>40.93056682611897</v>
-      </c>
-      <c r="D35" t="n">
-        <v>369.4717433641876</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1350,12 +1136,6 @@
       <c r="B36" t="n">
         <v>208</v>
       </c>
-      <c r="C36" t="n">
-        <v>33.36008160159775</v>
-      </c>
-      <c r="D36" t="n">
-        <v>367.0005635588489</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1364,12 +1144,6 @@
       <c r="B37" t="n">
         <v>209</v>
       </c>
-      <c r="C37" t="n">
-        <v>50.1476464091351</v>
-      </c>
-      <c r="D37" t="n">
-        <v>373.9499805294157</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1378,12 +1152,6 @@
       <c r="B38" t="n">
         <v>210</v>
       </c>
-      <c r="C38" t="n">
-        <v>48.61189321582133</v>
-      </c>
-      <c r="D38" t="n">
-        <v>376.8917370998279</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1392,12 +1160,6 @@
       <c r="B39" t="n">
         <v>211</v>
       </c>
-      <c r="C39" t="n">
-        <v>48.44340392930093</v>
-      </c>
-      <c r="D39" t="n">
-        <v>383.8145873209214</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1406,12 +1168,6 @@
       <c r="B40" t="n">
         <v>212</v>
       </c>
-      <c r="C40" t="n">
-        <v>37.88626929400352</v>
-      </c>
-      <c r="D40" t="n">
-        <v>374.4653421657113</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1419,12 +1175,6 @@
       </c>
       <c r="B41" t="n">
         <v>213</v>
-      </c>
-      <c r="C41" t="n">
-        <v>44.98421887023439</v>
-      </c>
-      <c r="D41" t="n">
-        <v>377.3193373133338</v>
       </c>
     </row>
   </sheetData>
